--- a/data/OHA Foraging Trials.xlsx
+++ b/data/OHA Foraging Trials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://virginiatech-my.sharepoint.com/personal/niche_vt_edu/Documents/_03_Papers/find_ants/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_87995790C05B5587C29D88372AF25CFF56419BD4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3111C39-EF65-F642-8540-CB1B73AA9507}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_87995790C05B5587C29D88372AF25CFF56419BD4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61E0EC64-861F-4444-AEB6-2378EA60D1C0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="28300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OHA Colonies" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
     <sheet name="Honey V2 Trial 1" sheetId="12" r:id="rId12"/>
     <sheet name="Honey V2 Trial 2" sheetId="13" r:id="rId13"/>
     <sheet name="Honey V2 Trial 3" sheetId="14" r:id="rId14"/>
-    <sheet name="Honey V2 Trial 4" sheetId="15" r:id="rId15"/>
-    <sheet name="Honey V2 Trial 5" sheetId="16" r:id="rId16"/>
+    <sheet name="Honey V2 Trial 5" sheetId="16" r:id="rId15"/>
+    <sheet name="Honey V2 Trial 4" sheetId="15" r:id="rId16"/>
     <sheet name="Honey V2 Trial 6" sheetId="17" r:id="rId17"/>
     <sheet name="Honey V2 Trial 7" sheetId="18" r:id="rId18"/>
     <sheet name="Honey V2 Trial 8" sheetId="19" r:id="rId19"/>
@@ -667,6 +667,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -3358,7 +3362,7 @@
   </sheetPr>
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="186" workbookViewId="0"/>
+    <sheetView zoomScale="186" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10734,6 +10738,1645 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23">
+        <v>791</v>
+      </c>
+      <c r="B2" s="40">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="23">
+        <v>792</v>
+      </c>
+      <c r="B3" s="40">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="23">
+        <v>793</v>
+      </c>
+      <c r="B4" s="40">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="23">
+        <v>794</v>
+      </c>
+      <c r="B5" s="40">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="23">
+        <v>795</v>
+      </c>
+      <c r="B6" s="40">
+        <v>0.8256944444444444</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="23">
+        <v>796</v>
+      </c>
+      <c r="B7" s="40">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="23">
+        <v>797</v>
+      </c>
+      <c r="B8" s="40">
+        <v>0.86736111111111114</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="23">
+        <v>798</v>
+      </c>
+      <c r="B9" s="40">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="23">
+        <v>799</v>
+      </c>
+      <c r="B10" s="40">
+        <v>0.90902777777777777</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="23">
+        <v>800</v>
+      </c>
+      <c r="B11" s="40">
+        <v>0.92986111111111114</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="23">
+        <v>801</v>
+      </c>
+      <c r="B12" s="40">
+        <v>0.9506944444444444</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="23">
+        <v>802</v>
+      </c>
+      <c r="B13" s="40">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="23">
+        <v>803</v>
+      </c>
+      <c r="B14" s="40">
+        <v>0.99236111111111114</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="23">
+        <v>804</v>
+      </c>
+      <c r="B15" s="40">
+        <v>1.0131944444444445</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="23">
+        <v>805</v>
+      </c>
+      <c r="B16" s="40">
+        <v>1.0340277777777778</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="23">
+        <v>806</v>
+      </c>
+      <c r="B17" s="40">
+        <v>1.054861111111111</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="23">
+        <v>807</v>
+      </c>
+      <c r="B18" s="40">
+        <v>1.0756944444444445</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="23">
+        <v>808</v>
+      </c>
+      <c r="B19" s="40">
+        <v>1.0965277777777778</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="23">
+        <v>809</v>
+      </c>
+      <c r="B20" s="40">
+        <v>1.117361111111111</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="23">
+        <v>810</v>
+      </c>
+      <c r="B21" s="40">
+        <v>1.1381944444444445</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="23">
+        <v>811</v>
+      </c>
+      <c r="B22" s="40">
+        <v>1.1590277777777778</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="23">
+        <v>812</v>
+      </c>
+      <c r="B23" s="40">
+        <v>1.179861111111111</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="23">
+        <v>813</v>
+      </c>
+      <c r="B24" s="40">
+        <v>1.2006944444444445</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="23">
+        <v>814</v>
+      </c>
+      <c r="B25" s="40">
+        <v>1.2215277777777778</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="23">
+        <v>815</v>
+      </c>
+      <c r="B26" s="40">
+        <v>1.242361111111111</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="23">
+        <v>816</v>
+      </c>
+      <c r="B27" s="40">
+        <v>1.2631944444444445</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="23">
+        <v>817</v>
+      </c>
+      <c r="B28" s="40">
+        <v>1.2840277777777778</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="23">
+        <v>818</v>
+      </c>
+      <c r="B29" s="40">
+        <v>1.304861111111111</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="23">
+        <v>819</v>
+      </c>
+      <c r="B30" s="40">
+        <v>1.3256944444444445</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="23">
+        <v>820</v>
+      </c>
+      <c r="B31" s="40">
+        <v>1.3465277777777778</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="23">
+        <v>821</v>
+      </c>
+      <c r="B32" s="40">
+        <v>1.367361111111111</v>
+      </c>
+      <c r="C32" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="23">
+        <v>822</v>
+      </c>
+      <c r="B33" s="40">
+        <v>1.3881944444444445</v>
+      </c>
+      <c r="C33" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="23">
+        <v>823</v>
+      </c>
+      <c r="B34" s="40">
+        <v>1.4090277777777778</v>
+      </c>
+      <c r="C34" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="23">
+        <v>824</v>
+      </c>
+      <c r="B35" s="40">
+        <v>1.429861111111111</v>
+      </c>
+      <c r="C35" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="23">
+        <v>825</v>
+      </c>
+      <c r="B36" s="40">
+        <v>1.4506944444444445</v>
+      </c>
+      <c r="C36" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="23">
+        <v>826</v>
+      </c>
+      <c r="B37" s="40">
+        <v>1.4715277777777778</v>
+      </c>
+      <c r="C37" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="23">
+        <v>827</v>
+      </c>
+      <c r="B38" s="40">
+        <v>1.492361111111111</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="23">
+        <v>828</v>
+      </c>
+      <c r="B39" s="40">
+        <v>1.5131944444444445</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="23">
+        <v>829</v>
+      </c>
+      <c r="B40" s="40">
+        <v>1.5340277777777778</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="23">
+        <v>830</v>
+      </c>
+      <c r="B41" s="40">
+        <v>1.554861111111111</v>
+      </c>
+      <c r="C41" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="23">
+        <v>831</v>
+      </c>
+      <c r="B42" s="40">
+        <v>1.5756944444444445</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="23">
+        <v>832</v>
+      </c>
+      <c r="B43" s="40">
+        <v>1.5965277777777778</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="23">
+        <v>833</v>
+      </c>
+      <c r="B44" s="40">
+        <v>1.617361111111111</v>
+      </c>
+      <c r="C44" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="23">
+        <v>834</v>
+      </c>
+      <c r="B45" s="40">
+        <v>1.6381944444444445</v>
+      </c>
+      <c r="C45" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="23">
+        <v>835</v>
+      </c>
+      <c r="B46" s="40">
+        <v>1.6590277777777778</v>
+      </c>
+      <c r="C46" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="23">
+        <v>836</v>
+      </c>
+      <c r="B47" s="40">
+        <v>1.679861111111111</v>
+      </c>
+      <c r="C47" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="23">
+        <v>837</v>
+      </c>
+      <c r="B48" s="40">
+        <v>1.7006944444444445</v>
+      </c>
+      <c r="C48" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="23">
+        <v>838</v>
+      </c>
+      <c r="B49" s="40">
+        <v>1.7215277777777778</v>
+      </c>
+      <c r="C49" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="23">
+        <v>839</v>
+      </c>
+      <c r="B50" s="40">
+        <v>1.742361111111111</v>
+      </c>
+      <c r="C50" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="23">
+        <v>840</v>
+      </c>
+      <c r="B51" s="40">
+        <v>1.7631944444444445</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="23">
+        <v>841</v>
+      </c>
+      <c r="B52" s="40">
+        <v>1.7840277777777778</v>
+      </c>
+      <c r="C52" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="23">
+        <v>842</v>
+      </c>
+      <c r="B53" s="40">
+        <v>1.804861111111111</v>
+      </c>
+      <c r="C53" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="23">
+        <v>843</v>
+      </c>
+      <c r="B54" s="40">
+        <v>1.8256944444444445</v>
+      </c>
+      <c r="C54" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="23">
+        <v>844</v>
+      </c>
+      <c r="B55" s="40">
+        <v>1.8465277777777778</v>
+      </c>
+      <c r="C55" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="23">
+        <v>845</v>
+      </c>
+      <c r="B56" s="40">
+        <v>1.867361111111111</v>
+      </c>
+      <c r="C56" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="23">
+        <v>846</v>
+      </c>
+      <c r="B57" s="40">
+        <v>1.8881944444444445</v>
+      </c>
+      <c r="C57" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="23">
+        <v>847</v>
+      </c>
+      <c r="B58" s="40">
+        <v>1.9090277777777778</v>
+      </c>
+      <c r="C58" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="23">
+        <v>848</v>
+      </c>
+      <c r="B59" s="40">
+        <v>1.929861111111111</v>
+      </c>
+      <c r="C59" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="23">
+        <v>849</v>
+      </c>
+      <c r="B60" s="40">
+        <v>1.9506944444444445</v>
+      </c>
+      <c r="C60" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="23">
+        <v>850</v>
+      </c>
+      <c r="B61" s="40">
+        <v>1.9715277777777778</v>
+      </c>
+      <c r="C61" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="23">
+        <v>851</v>
+      </c>
+      <c r="B62" s="40">
+        <v>1.992361111111111</v>
+      </c>
+      <c r="C62" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="23">
+        <v>852</v>
+      </c>
+      <c r="B63" s="40">
+        <v>2.0131944444444443</v>
+      </c>
+      <c r="C63" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="23">
+        <v>853</v>
+      </c>
+      <c r="B64" s="40">
+        <v>2.0340277777777778</v>
+      </c>
+      <c r="C64" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="23">
+        <v>854</v>
+      </c>
+      <c r="B65" s="40">
+        <v>2.0548611111111112</v>
+      </c>
+      <c r="C65" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="23">
+        <v>855</v>
+      </c>
+      <c r="B66" s="40">
+        <v>2.0756944444444443</v>
+      </c>
+      <c r="C66" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="23">
+        <v>856</v>
+      </c>
+      <c r="B67" s="40">
+        <v>2.0965277777777778</v>
+      </c>
+      <c r="C67" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="23">
+        <v>857</v>
+      </c>
+      <c r="B68" s="40">
+        <v>2.1173611111111112</v>
+      </c>
+      <c r="C68" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="23">
+        <v>858</v>
+      </c>
+      <c r="B69" s="40">
+        <v>2.1381944444444443</v>
+      </c>
+      <c r="C69" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="23">
+        <v>859</v>
+      </c>
+      <c r="B70" s="40">
+        <v>2.1590277777777778</v>
+      </c>
+      <c r="C70" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="23">
+        <v>860</v>
+      </c>
+      <c r="B71" s="40">
+        <v>2.1798611111111112</v>
+      </c>
+      <c r="C71" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="23">
+        <v>861</v>
+      </c>
+      <c r="B72" s="40">
+        <v>2.2006944444444443</v>
+      </c>
+      <c r="C72" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="23">
+        <v>862</v>
+      </c>
+      <c r="B73" s="40">
+        <v>2.2215277777777778</v>
+      </c>
+      <c r="C73" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="23">
+        <v>863</v>
+      </c>
+      <c r="B74" s="40">
+        <v>2.2423611111111112</v>
+      </c>
+      <c r="C74" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="23">
+        <v>864</v>
+      </c>
+      <c r="B75" s="40">
+        <v>2.2631944444444443</v>
+      </c>
+      <c r="C75" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="23">
+        <v>865</v>
+      </c>
+      <c r="B76" s="40">
+        <v>2.2840277777777778</v>
+      </c>
+      <c r="C76" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="23">
+        <v>866</v>
+      </c>
+      <c r="B77" s="40">
+        <v>2.3048611111111112</v>
+      </c>
+      <c r="C77" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="23">
+        <v>867</v>
+      </c>
+      <c r="B78" s="40">
+        <v>2.3256944444444443</v>
+      </c>
+      <c r="C78" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="23">
+        <v>868</v>
+      </c>
+      <c r="B79" s="40">
+        <v>2.3465277777777778</v>
+      </c>
+      <c r="C79" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="23">
+        <v>869</v>
+      </c>
+      <c r="B80" s="40">
+        <v>2.3673611111111112</v>
+      </c>
+      <c r="C80" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="23">
+        <v>870</v>
+      </c>
+      <c r="B81" s="40">
+        <v>2.3881944444444443</v>
+      </c>
+      <c r="C81" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="23">
+        <v>871</v>
+      </c>
+      <c r="B82" s="40">
+        <v>2.4090277777777778</v>
+      </c>
+      <c r="C82" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="23">
+        <v>872</v>
+      </c>
+      <c r="B83" s="40">
+        <v>2.4298611111111112</v>
+      </c>
+      <c r="C83" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="23">
+        <v>873</v>
+      </c>
+      <c r="B84" s="40">
+        <v>2.4506944444444443</v>
+      </c>
+      <c r="C84" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="23">
+        <v>874</v>
+      </c>
+      <c r="B85" s="40">
+        <v>2.4715277777777778</v>
+      </c>
+      <c r="C85" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="23">
+        <v>875</v>
+      </c>
+      <c r="B86" s="40">
+        <v>2.4923611111111112</v>
+      </c>
+      <c r="C86" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A87" s="23">
+        <v>876</v>
+      </c>
+      <c r="B87" s="40">
+        <v>2.5131944444444443</v>
+      </c>
+      <c r="C87" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88" s="23">
+        <v>877</v>
+      </c>
+      <c r="B88" s="40">
+        <v>2.5340277777777778</v>
+      </c>
+      <c r="C88" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89" s="23">
+        <v>878</v>
+      </c>
+      <c r="B89" s="40">
+        <v>2.5548611111111112</v>
+      </c>
+      <c r="C89" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90" s="23">
+        <v>879</v>
+      </c>
+      <c r="B90" s="40">
+        <v>2.5756944444444443</v>
+      </c>
+      <c r="C90" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" s="23">
+        <v>880</v>
+      </c>
+      <c r="B91" s="40">
+        <v>2.5965277777777778</v>
+      </c>
+      <c r="C91" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A92" s="23">
+        <v>881</v>
+      </c>
+      <c r="B92" s="40">
+        <v>2.6173611111111112</v>
+      </c>
+      <c r="C92" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93" s="23">
+        <v>882</v>
+      </c>
+      <c r="B93" s="40">
+        <v>2.6381944444444443</v>
+      </c>
+      <c r="C93" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94" s="23">
+        <v>883</v>
+      </c>
+      <c r="B94" s="40">
+        <v>2.6590277777777778</v>
+      </c>
+      <c r="C94" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="23">
+        <v>884</v>
+      </c>
+      <c r="B95" s="40">
+        <v>2.6798611111111112</v>
+      </c>
+      <c r="C95" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96" s="23">
+        <v>885</v>
+      </c>
+      <c r="B96" s="40">
+        <v>2.7006944444444443</v>
+      </c>
+      <c r="C96" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" s="23">
+        <v>886</v>
+      </c>
+      <c r="B97" s="40">
+        <v>2.7215277777777778</v>
+      </c>
+      <c r="C97" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A98" s="23">
+        <v>887</v>
+      </c>
+      <c r="B98" s="40">
+        <v>2.7423611111111112</v>
+      </c>
+      <c r="C98" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A99" s="23">
+        <v>888</v>
+      </c>
+      <c r="B99" s="40">
+        <v>2.7631944444444443</v>
+      </c>
+      <c r="C99" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100" s="23">
+        <v>889</v>
+      </c>
+      <c r="B100" s="40">
+        <v>2.7840277777777778</v>
+      </c>
+      <c r="C100" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A101" s="23">
+        <v>890</v>
+      </c>
+      <c r="B101" s="40">
+        <v>2.8048611111111112</v>
+      </c>
+      <c r="C101" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A102" s="23">
+        <v>891</v>
+      </c>
+      <c r="B102" s="40">
+        <v>2.8256944444444443</v>
+      </c>
+      <c r="C102" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A103" s="23">
+        <v>892</v>
+      </c>
+      <c r="B103" s="40">
+        <v>2.8465277777777778</v>
+      </c>
+      <c r="C103" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A104" s="23">
+        <v>893</v>
+      </c>
+      <c r="B104" s="40">
+        <v>2.8673611111111112</v>
+      </c>
+      <c r="C104" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A105" s="23">
+        <v>894</v>
+      </c>
+      <c r="B105" s="40">
+        <v>2.8881944444444443</v>
+      </c>
+      <c r="C105" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A106" s="23">
+        <v>895</v>
+      </c>
+      <c r="B106" s="40">
+        <v>2.9090277777777778</v>
+      </c>
+      <c r="C106" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A107" s="23">
+        <v>896</v>
+      </c>
+      <c r="B107" s="40">
+        <v>2.9298611111111112</v>
+      </c>
+      <c r="C107" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A108" s="23">
+        <v>897</v>
+      </c>
+      <c r="B108" s="40">
+        <v>2.9506944444444443</v>
+      </c>
+      <c r="C108" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A109" s="23">
+        <v>898</v>
+      </c>
+      <c r="B109" s="40">
+        <v>2.9715277777777778</v>
+      </c>
+      <c r="C109" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A110" s="23">
+        <v>899</v>
+      </c>
+      <c r="B110" s="40">
+        <v>2.9923611111111112</v>
+      </c>
+      <c r="C110" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A111" s="23">
+        <v>900</v>
+      </c>
+      <c r="B111" s="40">
+        <v>3.0131944444444443</v>
+      </c>
+      <c r="C111" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A112" s="23">
+        <v>901</v>
+      </c>
+      <c r="B112" s="40">
+        <v>3.0340277777777778</v>
+      </c>
+      <c r="C112" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A113" s="23">
+        <v>902</v>
+      </c>
+      <c r="B113" s="40">
+        <v>3.0548611111111112</v>
+      </c>
+      <c r="C113" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A114" s="23">
+        <v>903</v>
+      </c>
+      <c r="B114" s="40">
+        <v>3.0756944444444443</v>
+      </c>
+      <c r="C114" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A115" s="23">
+        <v>904</v>
+      </c>
+      <c r="B115" s="40">
+        <v>3.0965277777777778</v>
+      </c>
+      <c r="C115" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A116" s="23">
+        <v>905</v>
+      </c>
+      <c r="B116" s="40">
+        <v>3.1173611111111112</v>
+      </c>
+      <c r="C116" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A117" s="23">
+        <v>906</v>
+      </c>
+      <c r="B117" s="40">
+        <v>3.1381944444444443</v>
+      </c>
+      <c r="C117" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A118" s="23">
+        <v>907</v>
+      </c>
+      <c r="B118" s="40">
+        <v>3.1590277777777778</v>
+      </c>
+      <c r="C118" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A119" s="23">
+        <v>908</v>
+      </c>
+      <c r="B119" s="40">
+        <v>3.1798611111111112</v>
+      </c>
+      <c r="C119" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A120" s="23">
+        <v>909</v>
+      </c>
+      <c r="B120" s="40">
+        <v>3.2006944444444443</v>
+      </c>
+      <c r="C120" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A121" s="23">
+        <v>910</v>
+      </c>
+      <c r="B121" s="40">
+        <v>3.2215277777777778</v>
+      </c>
+      <c r="C121" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A122" s="23">
+        <v>911</v>
+      </c>
+      <c r="B122" s="40">
+        <v>3.2423611111111112</v>
+      </c>
+      <c r="C122" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A123" s="23">
+        <v>912</v>
+      </c>
+      <c r="B123" s="40">
+        <v>3.2631944444444443</v>
+      </c>
+      <c r="C123" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A124" s="23">
+        <v>913</v>
+      </c>
+      <c r="B124" s="40">
+        <v>3.2840277777777778</v>
+      </c>
+      <c r="C124" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A125" s="23">
+        <v>914</v>
+      </c>
+      <c r="B125" s="40">
+        <v>3.3048611111111112</v>
+      </c>
+      <c r="C125" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A126" s="23">
+        <v>915</v>
+      </c>
+      <c r="B126" s="40">
+        <v>3.3256944444444443</v>
+      </c>
+      <c r="C126" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A127" s="23">
+        <v>916</v>
+      </c>
+      <c r="B127" s="40">
+        <v>3.3465277777777778</v>
+      </c>
+      <c r="C127" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A128" s="23">
+        <v>917</v>
+      </c>
+      <c r="B128" s="40">
+        <v>3.3673611111111112</v>
+      </c>
+      <c r="C128" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A129" s="23">
+        <v>918</v>
+      </c>
+      <c r="B129" s="40">
+        <v>3.3881944444444443</v>
+      </c>
+      <c r="C129" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A130" s="23">
+        <v>919</v>
+      </c>
+      <c r="B130" s="40">
+        <v>3.4090277777777778</v>
+      </c>
+      <c r="C130" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A131" s="23">
+        <v>920</v>
+      </c>
+      <c r="B131" s="40">
+        <v>3.4298611111111112</v>
+      </c>
+      <c r="C131" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A132" s="23">
+        <v>921</v>
+      </c>
+      <c r="B132" s="40">
+        <v>3.4506944444444443</v>
+      </c>
+      <c r="C132" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A133" s="23">
+        <v>922</v>
+      </c>
+      <c r="B133" s="40">
+        <v>3.4715277777777778</v>
+      </c>
+      <c r="C133" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A134" s="23">
+        <v>923</v>
+      </c>
+      <c r="B134" s="40">
+        <v>3.4923611111111112</v>
+      </c>
+      <c r="C134" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A135" s="23">
+        <v>924</v>
+      </c>
+      <c r="B135" s="40">
+        <v>3.5131944444444443</v>
+      </c>
+      <c r="C135" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A136" s="23">
+        <v>925</v>
+      </c>
+      <c r="B136" s="40">
+        <v>3.5340277777777778</v>
+      </c>
+      <c r="C136" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A137" s="23">
+        <v>926</v>
+      </c>
+      <c r="B137" s="40">
+        <v>3.5548611111111112</v>
+      </c>
+      <c r="C137" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A138" s="23">
+        <v>927</v>
+      </c>
+      <c r="B138" s="40">
+        <v>3.5756944444444443</v>
+      </c>
+      <c r="C138" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A139" s="23">
+        <v>928</v>
+      </c>
+      <c r="B139" s="40">
+        <v>3.5965277777777778</v>
+      </c>
+      <c r="C139" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A140" s="23">
+        <v>929</v>
+      </c>
+      <c r="B140" s="40">
+        <v>3.6173611111111112</v>
+      </c>
+      <c r="C140" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A141" s="23">
+        <v>930</v>
+      </c>
+      <c r="B141" s="40">
+        <v>3.6381944444444443</v>
+      </c>
+      <c r="C141" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A142" s="23">
+        <v>931</v>
+      </c>
+      <c r="B142" s="40">
+        <v>3.6590277777777778</v>
+      </c>
+      <c r="C142" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A143" s="23">
+        <v>932</v>
+      </c>
+      <c r="B143" s="40">
+        <v>3.6798611111111112</v>
+      </c>
+      <c r="C143" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A144" s="23">
+        <v>933</v>
+      </c>
+      <c r="B144" s="40">
+        <v>3.7006944444444443</v>
+      </c>
+      <c r="C144" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A145" s="23">
+        <v>934</v>
+      </c>
+      <c r="B145" s="40">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="C145" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A146" s="23"/>
+      <c r="B146" s="40"/>
+    </row>
+    <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A147" s="23"/>
+      <c r="B147" s="40"/>
+    </row>
+    <row r="148" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A148" s="23"/>
+      <c r="B148" s="40"/>
+    </row>
+    <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A149" s="23"/>
+    </row>
+    <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B150" s="40"/>
+    </row>
+    <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B151" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12383,1645 +14026,6 @@
     </row>
     <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="23"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E151"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23">
-        <v>791</v>
-      </c>
-      <c r="B2" s="40">
-        <v>0.74236111111111114</v>
-      </c>
-      <c r="C2" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23">
-        <v>792</v>
-      </c>
-      <c r="B3" s="40">
-        <v>0.7631944444444444</v>
-      </c>
-      <c r="C3" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23">
-        <v>793</v>
-      </c>
-      <c r="B4" s="40">
-        <v>0.78402777777777777</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="23">
-        <v>794</v>
-      </c>
-      <c r="B5" s="40">
-        <v>0.80486111111111114</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23">
-        <v>795</v>
-      </c>
-      <c r="B6" s="40">
-        <v>0.8256944444444444</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23">
-        <v>796</v>
-      </c>
-      <c r="B7" s="40">
-        <v>0.84652777777777777</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="23">
-        <v>797</v>
-      </c>
-      <c r="B8" s="40">
-        <v>0.86736111111111114</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23">
-        <v>798</v>
-      </c>
-      <c r="B9" s="40">
-        <v>0.8881944444444444</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23">
-        <v>799</v>
-      </c>
-      <c r="B10" s="40">
-        <v>0.90902777777777777</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23">
-        <v>800</v>
-      </c>
-      <c r="B11" s="40">
-        <v>0.92986111111111114</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23">
-        <v>801</v>
-      </c>
-      <c r="B12" s="40">
-        <v>0.9506944444444444</v>
-      </c>
-      <c r="C12" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23">
-        <v>802</v>
-      </c>
-      <c r="B13" s="40">
-        <v>0.97152777777777777</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23">
-        <v>803</v>
-      </c>
-      <c r="B14" s="40">
-        <v>0.99236111111111114</v>
-      </c>
-      <c r="C14" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="23">
-        <v>804</v>
-      </c>
-      <c r="B15" s="40">
-        <v>1.0131944444444445</v>
-      </c>
-      <c r="C15" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23">
-        <v>805</v>
-      </c>
-      <c r="B16" s="40">
-        <v>1.0340277777777778</v>
-      </c>
-      <c r="C16" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23">
-        <v>806</v>
-      </c>
-      <c r="B17" s="40">
-        <v>1.054861111111111</v>
-      </c>
-      <c r="C17" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="23">
-        <v>807</v>
-      </c>
-      <c r="B18" s="40">
-        <v>1.0756944444444445</v>
-      </c>
-      <c r="C18" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23">
-        <v>808</v>
-      </c>
-      <c r="B19" s="40">
-        <v>1.0965277777777778</v>
-      </c>
-      <c r="C19" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23">
-        <v>809</v>
-      </c>
-      <c r="B20" s="40">
-        <v>1.117361111111111</v>
-      </c>
-      <c r="C20" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23">
-        <v>810</v>
-      </c>
-      <c r="B21" s="40">
-        <v>1.1381944444444445</v>
-      </c>
-      <c r="C21" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="23">
-        <v>811</v>
-      </c>
-      <c r="B22" s="40">
-        <v>1.1590277777777778</v>
-      </c>
-      <c r="C22" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="23">
-        <v>812</v>
-      </c>
-      <c r="B23" s="40">
-        <v>1.179861111111111</v>
-      </c>
-      <c r="C23" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="23">
-        <v>813</v>
-      </c>
-      <c r="B24" s="40">
-        <v>1.2006944444444445</v>
-      </c>
-      <c r="C24" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="23">
-        <v>814</v>
-      </c>
-      <c r="B25" s="40">
-        <v>1.2215277777777778</v>
-      </c>
-      <c r="C25" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="23">
-        <v>815</v>
-      </c>
-      <c r="B26" s="40">
-        <v>1.242361111111111</v>
-      </c>
-      <c r="C26" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="23">
-        <v>816</v>
-      </c>
-      <c r="B27" s="40">
-        <v>1.2631944444444445</v>
-      </c>
-      <c r="C27" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="23">
-        <v>817</v>
-      </c>
-      <c r="B28" s="40">
-        <v>1.2840277777777778</v>
-      </c>
-      <c r="C28" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="23">
-        <v>818</v>
-      </c>
-      <c r="B29" s="40">
-        <v>1.304861111111111</v>
-      </c>
-      <c r="C29" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="23">
-        <v>819</v>
-      </c>
-      <c r="B30" s="40">
-        <v>1.3256944444444445</v>
-      </c>
-      <c r="C30" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="23">
-        <v>820</v>
-      </c>
-      <c r="B31" s="40">
-        <v>1.3465277777777778</v>
-      </c>
-      <c r="C31" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="23">
-        <v>821</v>
-      </c>
-      <c r="B32" s="40">
-        <v>1.367361111111111</v>
-      </c>
-      <c r="C32" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="23">
-        <v>822</v>
-      </c>
-      <c r="B33" s="40">
-        <v>1.3881944444444445</v>
-      </c>
-      <c r="C33" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="23">
-        <v>823</v>
-      </c>
-      <c r="B34" s="40">
-        <v>1.4090277777777778</v>
-      </c>
-      <c r="C34" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="23">
-        <v>824</v>
-      </c>
-      <c r="B35" s="40">
-        <v>1.429861111111111</v>
-      </c>
-      <c r="C35" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="23">
-        <v>825</v>
-      </c>
-      <c r="B36" s="40">
-        <v>1.4506944444444445</v>
-      </c>
-      <c r="C36" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="23">
-        <v>826</v>
-      </c>
-      <c r="B37" s="40">
-        <v>1.4715277777777778</v>
-      </c>
-      <c r="C37" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="23">
-        <v>827</v>
-      </c>
-      <c r="B38" s="40">
-        <v>1.492361111111111</v>
-      </c>
-      <c r="C38" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="23">
-        <v>828</v>
-      </c>
-      <c r="B39" s="40">
-        <v>1.5131944444444445</v>
-      </c>
-      <c r="C39" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="23">
-        <v>829</v>
-      </c>
-      <c r="B40" s="40">
-        <v>1.5340277777777778</v>
-      </c>
-      <c r="C40" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="23">
-        <v>830</v>
-      </c>
-      <c r="B41" s="40">
-        <v>1.554861111111111</v>
-      </c>
-      <c r="C41" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="23">
-        <v>831</v>
-      </c>
-      <c r="B42" s="40">
-        <v>1.5756944444444445</v>
-      </c>
-      <c r="C42" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="23">
-        <v>832</v>
-      </c>
-      <c r="B43" s="40">
-        <v>1.5965277777777778</v>
-      </c>
-      <c r="C43" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="23">
-        <v>833</v>
-      </c>
-      <c r="B44" s="40">
-        <v>1.617361111111111</v>
-      </c>
-      <c r="C44" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="23">
-        <v>834</v>
-      </c>
-      <c r="B45" s="40">
-        <v>1.6381944444444445</v>
-      </c>
-      <c r="C45" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="23">
-        <v>835</v>
-      </c>
-      <c r="B46" s="40">
-        <v>1.6590277777777778</v>
-      </c>
-      <c r="C46" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="23">
-        <v>836</v>
-      </c>
-      <c r="B47" s="40">
-        <v>1.679861111111111</v>
-      </c>
-      <c r="C47" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="23">
-        <v>837</v>
-      </c>
-      <c r="B48" s="40">
-        <v>1.7006944444444445</v>
-      </c>
-      <c r="C48" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="23">
-        <v>838</v>
-      </c>
-      <c r="B49" s="40">
-        <v>1.7215277777777778</v>
-      </c>
-      <c r="C49" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="23">
-        <v>839</v>
-      </c>
-      <c r="B50" s="40">
-        <v>1.742361111111111</v>
-      </c>
-      <c r="C50" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="23">
-        <v>840</v>
-      </c>
-      <c r="B51" s="40">
-        <v>1.7631944444444445</v>
-      </c>
-      <c r="C51" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="23">
-        <v>841</v>
-      </c>
-      <c r="B52" s="40">
-        <v>1.7840277777777778</v>
-      </c>
-      <c r="C52" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="23">
-        <v>842</v>
-      </c>
-      <c r="B53" s="40">
-        <v>1.804861111111111</v>
-      </c>
-      <c r="C53" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="23">
-        <v>843</v>
-      </c>
-      <c r="B54" s="40">
-        <v>1.8256944444444445</v>
-      </c>
-      <c r="C54" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="23">
-        <v>844</v>
-      </c>
-      <c r="B55" s="40">
-        <v>1.8465277777777778</v>
-      </c>
-      <c r="C55" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="23">
-        <v>845</v>
-      </c>
-      <c r="B56" s="40">
-        <v>1.867361111111111</v>
-      </c>
-      <c r="C56" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="23">
-        <v>846</v>
-      </c>
-      <c r="B57" s="40">
-        <v>1.8881944444444445</v>
-      </c>
-      <c r="C57" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="23">
-        <v>847</v>
-      </c>
-      <c r="B58" s="40">
-        <v>1.9090277777777778</v>
-      </c>
-      <c r="C58" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="23">
-        <v>848</v>
-      </c>
-      <c r="B59" s="40">
-        <v>1.929861111111111</v>
-      </c>
-      <c r="C59" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="23">
-        <v>849</v>
-      </c>
-      <c r="B60" s="40">
-        <v>1.9506944444444445</v>
-      </c>
-      <c r="C60" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="23">
-        <v>850</v>
-      </c>
-      <c r="B61" s="40">
-        <v>1.9715277777777778</v>
-      </c>
-      <c r="C61" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="23">
-        <v>851</v>
-      </c>
-      <c r="B62" s="40">
-        <v>1.992361111111111</v>
-      </c>
-      <c r="C62" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="23">
-        <v>852</v>
-      </c>
-      <c r="B63" s="40">
-        <v>2.0131944444444443</v>
-      </c>
-      <c r="C63" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="23">
-        <v>853</v>
-      </c>
-      <c r="B64" s="40">
-        <v>2.0340277777777778</v>
-      </c>
-      <c r="C64" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="23">
-        <v>854</v>
-      </c>
-      <c r="B65" s="40">
-        <v>2.0548611111111112</v>
-      </c>
-      <c r="C65" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="23">
-        <v>855</v>
-      </c>
-      <c r="B66" s="40">
-        <v>2.0756944444444443</v>
-      </c>
-      <c r="C66" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="23">
-        <v>856</v>
-      </c>
-      <c r="B67" s="40">
-        <v>2.0965277777777778</v>
-      </c>
-      <c r="C67" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="23">
-        <v>857</v>
-      </c>
-      <c r="B68" s="40">
-        <v>2.1173611111111112</v>
-      </c>
-      <c r="C68" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="23">
-        <v>858</v>
-      </c>
-      <c r="B69" s="40">
-        <v>2.1381944444444443</v>
-      </c>
-      <c r="C69" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="23">
-        <v>859</v>
-      </c>
-      <c r="B70" s="40">
-        <v>2.1590277777777778</v>
-      </c>
-      <c r="C70" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="23">
-        <v>860</v>
-      </c>
-      <c r="B71" s="40">
-        <v>2.1798611111111112</v>
-      </c>
-      <c r="C71" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="23">
-        <v>861</v>
-      </c>
-      <c r="B72" s="40">
-        <v>2.2006944444444443</v>
-      </c>
-      <c r="C72" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="23">
-        <v>862</v>
-      </c>
-      <c r="B73" s="40">
-        <v>2.2215277777777778</v>
-      </c>
-      <c r="C73" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="23">
-        <v>863</v>
-      </c>
-      <c r="B74" s="40">
-        <v>2.2423611111111112</v>
-      </c>
-      <c r="C74" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="23">
-        <v>864</v>
-      </c>
-      <c r="B75" s="40">
-        <v>2.2631944444444443</v>
-      </c>
-      <c r="C75" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="23">
-        <v>865</v>
-      </c>
-      <c r="B76" s="40">
-        <v>2.2840277777777778</v>
-      </c>
-      <c r="C76" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="23">
-        <v>866</v>
-      </c>
-      <c r="B77" s="40">
-        <v>2.3048611111111112</v>
-      </c>
-      <c r="C77" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="23">
-        <v>867</v>
-      </c>
-      <c r="B78" s="40">
-        <v>2.3256944444444443</v>
-      </c>
-      <c r="C78" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="23">
-        <v>868</v>
-      </c>
-      <c r="B79" s="40">
-        <v>2.3465277777777778</v>
-      </c>
-      <c r="C79" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="23">
-        <v>869</v>
-      </c>
-      <c r="B80" s="40">
-        <v>2.3673611111111112</v>
-      </c>
-      <c r="C80" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="23">
-        <v>870</v>
-      </c>
-      <c r="B81" s="40">
-        <v>2.3881944444444443</v>
-      </c>
-      <c r="C81" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="23">
-        <v>871</v>
-      </c>
-      <c r="B82" s="40">
-        <v>2.4090277777777778</v>
-      </c>
-      <c r="C82" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="23">
-        <v>872</v>
-      </c>
-      <c r="B83" s="40">
-        <v>2.4298611111111112</v>
-      </c>
-      <c r="C83" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="23">
-        <v>873</v>
-      </c>
-      <c r="B84" s="40">
-        <v>2.4506944444444443</v>
-      </c>
-      <c r="C84" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="23">
-        <v>874</v>
-      </c>
-      <c r="B85" s="40">
-        <v>2.4715277777777778</v>
-      </c>
-      <c r="C85" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="23">
-        <v>875</v>
-      </c>
-      <c r="B86" s="40">
-        <v>2.4923611111111112</v>
-      </c>
-      <c r="C86" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="23">
-        <v>876</v>
-      </c>
-      <c r="B87" s="40">
-        <v>2.5131944444444443</v>
-      </c>
-      <c r="C87" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="23">
-        <v>877</v>
-      </c>
-      <c r="B88" s="40">
-        <v>2.5340277777777778</v>
-      </c>
-      <c r="C88" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="23">
-        <v>878</v>
-      </c>
-      <c r="B89" s="40">
-        <v>2.5548611111111112</v>
-      </c>
-      <c r="C89" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="23">
-        <v>879</v>
-      </c>
-      <c r="B90" s="40">
-        <v>2.5756944444444443</v>
-      </c>
-      <c r="C90" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="23">
-        <v>880</v>
-      </c>
-      <c r="B91" s="40">
-        <v>2.5965277777777778</v>
-      </c>
-      <c r="C91" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="23">
-        <v>881</v>
-      </c>
-      <c r="B92" s="40">
-        <v>2.6173611111111112</v>
-      </c>
-      <c r="C92" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="23">
-        <v>882</v>
-      </c>
-      <c r="B93" s="40">
-        <v>2.6381944444444443</v>
-      </c>
-      <c r="C93" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="23">
-        <v>883</v>
-      </c>
-      <c r="B94" s="40">
-        <v>2.6590277777777778</v>
-      </c>
-      <c r="C94" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="23">
-        <v>884</v>
-      </c>
-      <c r="B95" s="40">
-        <v>2.6798611111111112</v>
-      </c>
-      <c r="C95" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="23">
-        <v>885</v>
-      </c>
-      <c r="B96" s="40">
-        <v>2.7006944444444443</v>
-      </c>
-      <c r="C96" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="23">
-        <v>886</v>
-      </c>
-      <c r="B97" s="40">
-        <v>2.7215277777777778</v>
-      </c>
-      <c r="C97" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A98" s="23">
-        <v>887</v>
-      </c>
-      <c r="B98" s="40">
-        <v>2.7423611111111112</v>
-      </c>
-      <c r="C98" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A99" s="23">
-        <v>888</v>
-      </c>
-      <c r="B99" s="40">
-        <v>2.7631944444444443</v>
-      </c>
-      <c r="C99" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" s="23">
-        <v>889</v>
-      </c>
-      <c r="B100" s="40">
-        <v>2.7840277777777778</v>
-      </c>
-      <c r="C100" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="23">
-        <v>890</v>
-      </c>
-      <c r="B101" s="40">
-        <v>2.8048611111111112</v>
-      </c>
-      <c r="C101" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="23">
-        <v>891</v>
-      </c>
-      <c r="B102" s="40">
-        <v>2.8256944444444443</v>
-      </c>
-      <c r="C102" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A103" s="23">
-        <v>892</v>
-      </c>
-      <c r="B103" s="40">
-        <v>2.8465277777777778</v>
-      </c>
-      <c r="C103" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A104" s="23">
-        <v>893</v>
-      </c>
-      <c r="B104" s="40">
-        <v>2.8673611111111112</v>
-      </c>
-      <c r="C104" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A105" s="23">
-        <v>894</v>
-      </c>
-      <c r="B105" s="40">
-        <v>2.8881944444444443</v>
-      </c>
-      <c r="C105" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A106" s="23">
-        <v>895</v>
-      </c>
-      <c r="B106" s="40">
-        <v>2.9090277777777778</v>
-      </c>
-      <c r="C106" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A107" s="23">
-        <v>896</v>
-      </c>
-      <c r="B107" s="40">
-        <v>2.9298611111111112</v>
-      </c>
-      <c r="C107" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A108" s="23">
-        <v>897</v>
-      </c>
-      <c r="B108" s="40">
-        <v>2.9506944444444443</v>
-      </c>
-      <c r="C108" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A109" s="23">
-        <v>898</v>
-      </c>
-      <c r="B109" s="40">
-        <v>2.9715277777777778</v>
-      </c>
-      <c r="C109" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A110" s="23">
-        <v>899</v>
-      </c>
-      <c r="B110" s="40">
-        <v>2.9923611111111112</v>
-      </c>
-      <c r="C110" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A111" s="23">
-        <v>900</v>
-      </c>
-      <c r="B111" s="40">
-        <v>3.0131944444444443</v>
-      </c>
-      <c r="C111" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A112" s="23">
-        <v>901</v>
-      </c>
-      <c r="B112" s="40">
-        <v>3.0340277777777778</v>
-      </c>
-      <c r="C112" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A113" s="23">
-        <v>902</v>
-      </c>
-      <c r="B113" s="40">
-        <v>3.0548611111111112</v>
-      </c>
-      <c r="C113" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A114" s="23">
-        <v>903</v>
-      </c>
-      <c r="B114" s="40">
-        <v>3.0756944444444443</v>
-      </c>
-      <c r="C114" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A115" s="23">
-        <v>904</v>
-      </c>
-      <c r="B115" s="40">
-        <v>3.0965277777777778</v>
-      </c>
-      <c r="C115" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A116" s="23">
-        <v>905</v>
-      </c>
-      <c r="B116" s="40">
-        <v>3.1173611111111112</v>
-      </c>
-      <c r="C116" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A117" s="23">
-        <v>906</v>
-      </c>
-      <c r="B117" s="40">
-        <v>3.1381944444444443</v>
-      </c>
-      <c r="C117" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A118" s="23">
-        <v>907</v>
-      </c>
-      <c r="B118" s="40">
-        <v>3.1590277777777778</v>
-      </c>
-      <c r="C118" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A119" s="23">
-        <v>908</v>
-      </c>
-      <c r="B119" s="40">
-        <v>3.1798611111111112</v>
-      </c>
-      <c r="C119" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A120" s="23">
-        <v>909</v>
-      </c>
-      <c r="B120" s="40">
-        <v>3.2006944444444443</v>
-      </c>
-      <c r="C120" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A121" s="23">
-        <v>910</v>
-      </c>
-      <c r="B121" s="40">
-        <v>3.2215277777777778</v>
-      </c>
-      <c r="C121" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A122" s="23">
-        <v>911</v>
-      </c>
-      <c r="B122" s="40">
-        <v>3.2423611111111112</v>
-      </c>
-      <c r="C122" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A123" s="23">
-        <v>912</v>
-      </c>
-      <c r="B123" s="40">
-        <v>3.2631944444444443</v>
-      </c>
-      <c r="C123" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A124" s="23">
-        <v>913</v>
-      </c>
-      <c r="B124" s="40">
-        <v>3.2840277777777778</v>
-      </c>
-      <c r="C124" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A125" s="23">
-        <v>914</v>
-      </c>
-      <c r="B125" s="40">
-        <v>3.3048611111111112</v>
-      </c>
-      <c r="C125" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A126" s="23">
-        <v>915</v>
-      </c>
-      <c r="B126" s="40">
-        <v>3.3256944444444443</v>
-      </c>
-      <c r="C126" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A127" s="23">
-        <v>916</v>
-      </c>
-      <c r="B127" s="40">
-        <v>3.3465277777777778</v>
-      </c>
-      <c r="C127" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A128" s="23">
-        <v>917</v>
-      </c>
-      <c r="B128" s="40">
-        <v>3.3673611111111112</v>
-      </c>
-      <c r="C128" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A129" s="23">
-        <v>918</v>
-      </c>
-      <c r="B129" s="40">
-        <v>3.3881944444444443</v>
-      </c>
-      <c r="C129" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A130" s="23">
-        <v>919</v>
-      </c>
-      <c r="B130" s="40">
-        <v>3.4090277777777778</v>
-      </c>
-      <c r="C130" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A131" s="23">
-        <v>920</v>
-      </c>
-      <c r="B131" s="40">
-        <v>3.4298611111111112</v>
-      </c>
-      <c r="C131" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A132" s="23">
-        <v>921</v>
-      </c>
-      <c r="B132" s="40">
-        <v>3.4506944444444443</v>
-      </c>
-      <c r="C132" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A133" s="23">
-        <v>922</v>
-      </c>
-      <c r="B133" s="40">
-        <v>3.4715277777777778</v>
-      </c>
-      <c r="C133" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A134" s="23">
-        <v>923</v>
-      </c>
-      <c r="B134" s="40">
-        <v>3.4923611111111112</v>
-      </c>
-      <c r="C134" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A135" s="23">
-        <v>924</v>
-      </c>
-      <c r="B135" s="40">
-        <v>3.5131944444444443</v>
-      </c>
-      <c r="C135" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A136" s="23">
-        <v>925</v>
-      </c>
-      <c r="B136" s="40">
-        <v>3.5340277777777778</v>
-      </c>
-      <c r="C136" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A137" s="23">
-        <v>926</v>
-      </c>
-      <c r="B137" s="40">
-        <v>3.5548611111111112</v>
-      </c>
-      <c r="C137" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A138" s="23">
-        <v>927</v>
-      </c>
-      <c r="B138" s="40">
-        <v>3.5756944444444443</v>
-      </c>
-      <c r="C138" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A139" s="23">
-        <v>928</v>
-      </c>
-      <c r="B139" s="40">
-        <v>3.5965277777777778</v>
-      </c>
-      <c r="C139" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A140" s="23">
-        <v>929</v>
-      </c>
-      <c r="B140" s="40">
-        <v>3.6173611111111112</v>
-      </c>
-      <c r="C140" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A141" s="23">
-        <v>930</v>
-      </c>
-      <c r="B141" s="40">
-        <v>3.6381944444444443</v>
-      </c>
-      <c r="C141" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A142" s="23">
-        <v>931</v>
-      </c>
-      <c r="B142" s="40">
-        <v>3.6590277777777778</v>
-      </c>
-      <c r="C142" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A143" s="23">
-        <v>932</v>
-      </c>
-      <c r="B143" s="40">
-        <v>3.6798611111111112</v>
-      </c>
-      <c r="C143" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A144" s="23">
-        <v>933</v>
-      </c>
-      <c r="B144" s="40">
-        <v>3.7006944444444443</v>
-      </c>
-      <c r="C144" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A145" s="23">
-        <v>934</v>
-      </c>
-      <c r="B145" s="40">
-        <v>0.72152777777777777</v>
-      </c>
-      <c r="C145" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A146" s="23"/>
-      <c r="B146" s="40"/>
-    </row>
-    <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A147" s="23"/>
-      <c r="B147" s="40"/>
-    </row>
-    <row r="148" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A148" s="23"/>
-      <c r="B148" s="40"/>
-    </row>
-    <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A149" s="23"/>
-    </row>
-    <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B150" s="40"/>
-    </row>
-    <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B151" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
